--- a/src/TestData/TestData.xlsx
+++ b/src/TestData/TestData.xlsx
@@ -362,10 +362,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
